--- a/data-export/export_202204/sum_tagged_agri_detail.xlsx
+++ b/data-export/export_202204/sum_tagged_agri_detail.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,10 +414,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-2466394.39</v>
+        <v>-2466394.390000002</v>
       </c>
       <c r="F2">
-        <v>-9551651.43</v>
+        <v>-9551651.429999998</v>
       </c>
       <c r="G2">
         <v>-12018045.82</v>
@@ -443,7 +443,7 @@
         <v>0.4</v>
       </c>
       <c r="E3">
-        <v>-56258.6</v>
+        <v>-56258.60000000001</v>
       </c>
       <c r="F3">
         <v>-225036.22</v>
@@ -475,7 +475,7 @@
         <v>-224803.18</v>
       </c>
       <c r="F4">
-        <v>-899213.5700000001</v>
+        <v>-899213.5700000004</v>
       </c>
       <c r="G4">
         <v>-1124016.75</v>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>-884293.5</v>
+        <v>-884293.4999999999</v>
       </c>
       <c r="F6">
         <v>-2652877.75</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>-5109702.53</v>
+        <v>-5109702.529999997</v>
       </c>
       <c r="F15">
         <v>-12000166.42</v>
@@ -971,7 +971,7 @@
         <v>-582662.5699999999</v>
       </c>
       <c r="G21">
-        <v>-776882.76</v>
+        <v>-776882.7600000001</v>
       </c>
     </row>
     <row r="22">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>-741638.34</v>
+        <v>-741638.3400000001</v>
       </c>
       <c r="F30">
         <v>-2966543.3</v>
@@ -1342,13 +1342,13 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>-616556.74</v>
+        <v>-616556.7400000002</v>
       </c>
       <c r="F34">
         <v>-2466227.34</v>
       </c>
       <c r="G34">
-        <v>-3082784.08</v>
+        <v>-3082784.080000001</v>
       </c>
     </row>
     <row r="35">
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>-704002.46</v>
+        <v>-704002.4600000001</v>
       </c>
       <c r="F37">
         <v>-2112005.64</v>
@@ -1458,13 +1458,13 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>3223414193.57</v>
+        <v>3223414193.569979</v>
       </c>
       <c r="F38">
-        <v>9672808263.870001</v>
+        <v>9672808263.870176</v>
       </c>
       <c r="G38">
-        <v>12896222457.44</v>
+        <v>12896222457.43991</v>
       </c>
     </row>
     <row r="39">
@@ -1490,10 +1490,10 @@
         <v>35840924.57</v>
       </c>
       <c r="F39">
-        <v>107555281.89</v>
+        <v>107555281.8899998</v>
       </c>
       <c r="G39">
-        <v>143396206.46</v>
+        <v>143396206.4600001</v>
       </c>
     </row>
     <row r="40">
@@ -1516,13 +1516,13 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>2169513102.98</v>
+        <v>2169513102.979989</v>
       </c>
       <c r="F40">
-        <v>6510540691.67</v>
+        <v>6510540691.670097</v>
       </c>
       <c r="G40">
-        <v>8680053794.65</v>
+        <v>8680053794.649925</v>
       </c>
     </row>
     <row r="41">
@@ -1545,13 +1545,13 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1366489361.91</v>
+        <v>1366489361.910001</v>
       </c>
       <c r="F41">
-        <v>4100404216.54</v>
+        <v>4100404216.540011</v>
       </c>
       <c r="G41">
-        <v>5466893578.45</v>
+        <v>5466893578.450015</v>
       </c>
     </row>
     <row r="42">
@@ -1574,13 +1574,13 @@
         <v>0.4</v>
       </c>
       <c r="E42">
-        <v>26912239.58</v>
+        <v>26912239.58000001</v>
       </c>
       <c r="F42">
-        <v>80738535.95999999</v>
+        <v>80738535.96000105</v>
       </c>
       <c r="G42">
-        <v>107650775.54</v>
+        <v>107650775.5400003</v>
       </c>
     </row>
     <row r="43">
@@ -1603,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>3390334.91</v>
+        <v>3390334.910000002</v>
       </c>
       <c r="F43">
         <v>10170985.28</v>
@@ -1748,13 +1748,13 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>8493640.48</v>
+        <v>8493640.479999995</v>
       </c>
       <c r="F48">
         <v>25480620.42</v>
       </c>
       <c r="G48">
-        <v>33974260.9</v>
+        <v>33974260.90000002</v>
       </c>
     </row>
     <row r="49">
@@ -1806,13 +1806,13 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1187571143.56</v>
+        <v>1187571143.559998</v>
       </c>
       <c r="F50">
-        <v>3563563261.26</v>
+        <v>3563563261.259962</v>
       </c>
       <c r="G50">
-        <v>4751134404.82</v>
+        <v>4751134404.820004</v>
       </c>
     </row>
     <row r="51">
@@ -1835,13 +1835,13 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>12578009.57</v>
+        <v>12578009.56999999</v>
       </c>
       <c r="F51">
-        <v>37738356.82</v>
+        <v>37738356.82000005</v>
       </c>
       <c r="G51">
-        <v>50316366.39</v>
+        <v>50316366.38999997</v>
       </c>
     </row>
     <row r="52">
@@ -1864,10 +1864,10 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>32653049.93</v>
+        <v>32653049.92999999</v>
       </c>
       <c r="F52">
-        <v>97959317.86</v>
+        <v>97959317.85999998</v>
       </c>
       <c r="G52">
         <v>130612367.79</v>
@@ -1893,13 +1893,13 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>3548937.92</v>
+        <v>3548937.919999998</v>
       </c>
       <c r="F53">
-        <v>10648941.65</v>
+        <v>10648941.64999999</v>
       </c>
       <c r="G53">
-        <v>14197879.57</v>
+        <v>14197879.57000001</v>
       </c>
     </row>
     <row r="54">
@@ -1922,10 +1922,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>181981153.85</v>
+        <v>181981153.8500005</v>
       </c>
       <c r="F54">
-        <v>178367237.6</v>
+        <v>178367237.5999995</v>
       </c>
       <c r="G54">
         <v>360348391.45</v>
@@ -1951,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1591182708.54</v>
+        <v>1591182708.539999</v>
       </c>
       <c r="F55">
         <v>1560227897.37</v>
       </c>
       <c r="G55">
-        <v>3151410605.91</v>
+        <v>3151410605.909998</v>
       </c>
     </row>
     <row r="56">
@@ -1980,10 +1980,10 @@
         <v>0.4</v>
       </c>
       <c r="E56">
-        <v>2946181.48</v>
+        <v>2946181.479999999</v>
       </c>
       <c r="F56">
-        <v>8839234.58</v>
+        <v>8839234.579999998</v>
       </c>
       <c r="G56">
         <v>11785416.06</v>
@@ -2009,10 +2009,10 @@
         <v>0.4</v>
       </c>
       <c r="E57">
-        <v>1611769.91</v>
+        <v>1611769.909999999</v>
       </c>
       <c r="F57">
-        <v>4835383.36</v>
+        <v>4835383.360000004</v>
       </c>
       <c r="G57">
         <v>6447153.27</v>
@@ -2215,7 +2215,7 @@
         <v>561658711.4</v>
       </c>
       <c r="F64">
-        <v>998606513.6</v>
+        <v>998606513.6000001</v>
       </c>
       <c r="G64">
         <v>1560265225</v>
@@ -2444,13 +2444,13 @@
         <v>0.4</v>
       </c>
       <c r="E72">
-        <v>467476583.51</v>
+        <v>467476583.5100001</v>
       </c>
       <c r="F72">
-        <v>458218221.52</v>
+        <v>458218221.5200001</v>
       </c>
       <c r="G72">
-        <v>925694805.03</v>
+        <v>925694805.0299999</v>
       </c>
     </row>
     <row r="73">
@@ -2775,1104 +2775,2508 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Bahnice a kozy (VCS)</t>
+          <t>AEO-Agroenvironmentální opatření 2007-13</t>
         </is>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>-535514.6800000001</v>
       </c>
       <c r="F84">
-        <v>278703185.71</v>
+        <v>-649637.4599999998</v>
       </c>
       <c r="G84">
-        <v>278703185.71</v>
+        <v>-1185152.14</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Bílkovinné plodiny (VCS)</t>
-        </is>
+          <t>ELESP-Péče a náhrada</t>
+        </is>
+      </c>
+      <c r="D85">
+        <v>0.4</v>
       </c>
       <c r="E85">
-        <v>0</v>
+        <v>-17213.66</v>
       </c>
       <c r="F85">
-        <v>1728291449.02</v>
+        <v>-68854.56</v>
       </c>
       <c r="G85">
-        <v>1728291449.02</v>
+        <v>-86068.22</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Brambory konzumní (VCS)</t>
+          <t>ELESZ-Zalesnění</t>
         </is>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>-104467.14</v>
       </c>
       <c r="F86">
-        <v>189313196.92</v>
+        <v>-417868.52</v>
       </c>
       <c r="G86">
-        <v>189313196.92</v>
+        <v>-522335.66</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Brambory pro výrobu škrobu (VCS)</t>
+          <t>I.1.1.1-Modernizace zemědělských podniků</t>
         </is>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>-170967</v>
       </c>
       <c r="F87">
-        <v>319022021.47</v>
+        <v>-512899</v>
       </c>
       <c r="G87">
-        <v>319022021.47</v>
+        <v>-683866</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Chmel (VCS)</t>
+          <t>I.1.1.1.a-Stavby a technologie pro živočišnou výrobu</t>
         </is>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>-1534177.86</v>
       </c>
       <c r="F88">
-        <v>324261813.76</v>
+        <v>-4602532.57</v>
       </c>
       <c r="G88">
-        <v>324261813.76</v>
+        <v>-6136710.429999999</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Cukrová řepa (VCS)</t>
+          <t>I.1.2.1.a-Lesnická technika - pořízení strojů</t>
         </is>
       </c>
       <c r="E89">
-        <v>0</v>
+        <v>-29745.45</v>
       </c>
       <c r="F89">
-        <v>1715126043.13</v>
+        <v>-89236.35000000001</v>
       </c>
       <c r="G89">
-        <v>1715126043.13</v>
+        <v>-118981.8</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Dojnice (VCS)</t>
+          <t>I.1.3.1.c-Přidávání hodnoty zemědělským a potravinářským pro</t>
         </is>
       </c>
       <c r="E90">
-        <v>2789.55</v>
+        <v>-1474.1</v>
       </c>
       <c r="F90">
-        <v>5253115017.39</v>
+        <v>-4422.32</v>
       </c>
       <c r="G90">
-        <v>5253117806.94</v>
+        <v>-5896.42</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Finanční kompenzace</t>
+          <t>I.1.3.1.Z-Přidávání hodnoty zemědělským a potravinářským pro</t>
         </is>
       </c>
       <c r="E91">
-        <v>0</v>
+        <v>-262330.83</v>
       </c>
       <c r="F91">
-        <v>1154241863.32</v>
+        <v>-786992.48</v>
       </c>
       <c r="G91">
-        <v>1154241863.32</v>
+        <v>-1049323.31</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Greening</t>
+          <t>I.3.1.b-Další odborné vzdělávání a informační činnost</t>
         </is>
       </c>
       <c r="E92">
-        <v>0</v>
+        <v>-100000.23</v>
       </c>
       <c r="F92">
-        <v>26299843212.46</v>
+        <v>-299999.77</v>
       </c>
       <c r="G92">
-        <v>26299843212.46</v>
+        <v>-400000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mladý zemědělec</t>
+          <t>I.3.2-Zahájení činnosti mladých zemědělců</t>
         </is>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>-498535.66</v>
       </c>
       <c r="F93">
-        <v>511570577.26</v>
+        <v>-1151782.75</v>
       </c>
       <c r="G93">
-        <v>511570577.26</v>
+        <v>-1650318.41</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Oddělená platba za cukr</t>
+          <t>I.3.4-Využívání poradenských služeb</t>
         </is>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>-12965.67</v>
       </c>
       <c r="F94">
-        <v>371556.16</v>
+        <v>-38895.02</v>
       </c>
       <c r="G94">
-        <v>371556.16</v>
+        <v>-51860.69</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ovoce s velmi vysokou pracností (VCS)</t>
+          <t>III.1.1.a-Diverzifikace činností nezemědělské povahy</t>
         </is>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>-3089923</v>
       </c>
       <c r="F95">
-        <v>264785762.02</v>
+        <v>-9269763</v>
       </c>
       <c r="G95">
-        <v>264785762.02</v>
+        <v>-12359686</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Ovoce s vysokou pracností (VCS)</t>
+          <t>III.1.2.a-Zakládání a rozvoj mikropodniku</t>
         </is>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-1241165.35</v>
       </c>
       <c r="F96">
-        <v>103392047.85</v>
+        <v>-3723496.27</v>
       </c>
       <c r="G96">
-        <v>103392047.85</v>
+        <v>-4964661.62</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Platba na plochu (SAPS)</t>
+          <t>III.1.2.f-Zakládání a rozvoj mikropodniku - území České rep</t>
         </is>
       </c>
       <c r="E97">
-        <v>0</v>
+        <v>-9924.99</v>
       </c>
       <c r="F97">
-        <v>47211334316.81</v>
+        <v>-29775.01</v>
       </c>
       <c r="G97">
-        <v>47211334316.81</v>
+        <v>-39700</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Tele masného typu (VCS)</t>
+          <t>III.2.1.2.-Občanské vybavení a služby</t>
         </is>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>-5230622.69</v>
       </c>
       <c r="F98">
-        <v>2538752642.55</v>
+        <v>-3138373.19</v>
       </c>
       <c r="G98">
-        <v>2538752642.55</v>
+        <v>-8368995.88</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Zelenina s velmi vysokou pracností (VCS)</t>
+          <t>III.2.2.b-Obnova a zhodnocování kulturního dědictví venkova</t>
         </is>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-70480.03999999999</v>
       </c>
       <c r="F99">
-        <v>327074784.49</v>
+        <v>-211440.1</v>
       </c>
       <c r="G99">
-        <v>327074784.49</v>
+        <v>-281920.14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Přímá podpora</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Zelenina s vysokou pracností (VCS)</t>
+          <t>IV.1.2.3-Realizace místní rozvojové strategie</t>
         </is>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-2381.51</v>
       </c>
       <c r="F100">
-        <v>52170092.62</v>
+        <v>-9526</v>
       </c>
       <c r="G100">
-        <v>52170092.62</v>
+        <v>-11907.51</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Intervenční prodej</t>
-        </is>
+          <t>LFA-Méně příznivé oblasti</t>
+        </is>
+      </c>
+      <c r="D101">
+        <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>-54241.88000000001</v>
       </c>
       <c r="F101">
-        <v>-5333.17</v>
+        <v>-216967.5299999999</v>
       </c>
       <c r="G101">
-        <v>-5333.17</v>
+        <v>-271209.41</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Mimořádná podpora na vepřové maso</t>
-        </is>
+          <t>1.1.1-Vzdělávací akce</t>
+        </is>
+      </c>
+      <c r="D102">
+        <v>1</v>
       </c>
       <c r="E102">
-        <v>111826855.88</v>
+        <v>866809</v>
       </c>
       <c r="F102">
-        <v>111826855.88</v>
+        <v>849640</v>
       </c>
       <c r="G102">
-        <v>223653711.76</v>
+        <v>1716449</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Mimořádná podpora pro zemědělce v odvětví živočišné výroby -</t>
-        </is>
+          <t>1.2.1-Informační akce</t>
+        </is>
+      </c>
+      <c r="D103">
+        <v>1</v>
       </c>
       <c r="E103">
-        <v>-2410670.89</v>
+        <v>424607</v>
       </c>
       <c r="F103">
-        <v>-1607114.49</v>
+        <v>416197</v>
       </c>
       <c r="G103">
-        <v>-4017785.38</v>
+        <v>840804</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Mléko pro školy</t>
+          <t>16.1.1-Podpora operačních skupin a projektů EIP</t>
         </is>
       </c>
       <c r="E104">
-        <v>621363421.14</v>
+        <v>2771498</v>
       </c>
       <c r="F104">
-        <v>156531716.34</v>
+        <v>2716606</v>
       </c>
       <c r="G104">
-        <v>777895137.48</v>
+        <v>5488104</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Opatření v oblasti propagace - Platby ze strany členských st</t>
+          <t>16.2.1-Podpora vývoje nových produktů, postupů a technologií</t>
         </is>
       </c>
       <c r="E105">
-        <v>22906887.07</v>
+        <v>35911904</v>
       </c>
       <c r="F105">
-        <v>43347592.66</v>
+        <v>35200771</v>
       </c>
       <c r="G105">
-        <v>66254479.73</v>
+        <v>71112675</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Operační fondy pro organizace producentů</t>
+          <t>16.2.2-Podpora vývoje nových produktů, postupů a technologií</t>
         </is>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>248563669</v>
       </c>
       <c r="F106">
-        <v>273547850.24</v>
+        <v>243641611</v>
       </c>
       <c r="G106">
-        <v>273547850.24</v>
+        <v>492205280</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Organizace a seskupení pěstitelů ovoce a zeleniny</t>
+          <t>16.3.1-Sdílení zařízení a strojů</t>
         </is>
       </c>
       <c r="E107">
-        <v>589664.71</v>
+        <v>73676622</v>
       </c>
       <c r="F107">
-        <v>1768994.15</v>
+        <v>72217636</v>
       </c>
       <c r="G107">
-        <v>2358658.86</v>
+        <v>145894258</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Organizace producentů</t>
+          <t>16.4.1-Horizontální a vertikální spolupráce mezi účastníky k</t>
         </is>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>92780</v>
       </c>
       <c r="F108">
-        <v>76209042.87</v>
+        <v>90942</v>
       </c>
       <c r="G108">
-        <v>76209042.87</v>
+        <v>183722</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Ostatní opatření (mléko a mléčné výrobky)</t>
+          <t>19.2.1-Podpora provádění operací v rámci komunitně vedeného</t>
         </is>
       </c>
       <c r="E109">
-        <v>167738548.66</v>
+        <v>229106212</v>
       </c>
       <c r="F109">
-        <v>200004136.1</v>
+        <v>407298759</v>
       </c>
       <c r="G109">
-        <v>367742684.76</v>
+        <v>636404971</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ostatní opatření (ovoce a zelenina)</t>
+          <t>19.3.1-Příprava a provádění činnosti spolupr.místních akčníc</t>
         </is>
       </c>
       <c r="E110">
-        <v>0</v>
+        <v>392527</v>
       </c>
       <c r="F110">
-        <v>209917.78</v>
+        <v>697822</v>
       </c>
       <c r="G110">
-        <v>209917.78</v>
+        <v>1090349</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ovoce a zelenina do škol</t>
+          <t>20.1-Podpora technické pomoci (mimo CSV)</t>
         </is>
       </c>
       <c r="E111">
-        <v>72440753.47</v>
+        <v>24296585</v>
       </c>
       <c r="F111">
-        <v>123533477.61</v>
+        <v>23815426</v>
       </c>
       <c r="G111">
-        <v>195974231.08</v>
+        <v>48112011</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ovoce a zelenina do škol - hodnocení</t>
+          <t>20.2-Podpora pro zřízení a činnost CSV</t>
         </is>
       </c>
       <c r="E112">
-        <v>-1728.49</v>
+        <v>3913484</v>
       </c>
       <c r="F112">
-        <v>-4111.01</v>
+        <v>3835975</v>
       </c>
       <c r="G112">
-        <v>-5839.5</v>
+        <v>7749459</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Podpora spotřeby školního mléka</t>
+          <t>4.1.1-Investice do zemědělských podniků</t>
         </is>
       </c>
       <c r="E113">
-        <v>46123607.3</v>
+        <v>721918941</v>
       </c>
       <c r="F113">
-        <v>11599673.21</v>
+        <v>692378487</v>
       </c>
       <c r="G113">
-        <v>57723280.51</v>
+        <v>1414297428</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Projekt Ovoce do škol</t>
+          <t>4.2.1-Zpracování a uvádění na trh zemědělských produktů</t>
         </is>
       </c>
       <c r="E114">
-        <v>608227695.25</v>
+        <v>235085990</v>
       </c>
       <c r="F114">
-        <v>337681310.6</v>
+        <v>230379153</v>
       </c>
       <c r="G114">
-        <v>945909005.85</v>
+        <v>465465143</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Propagace zemědělských produktů</t>
+          <t>4.3.1-Pozemkové úpravy</t>
         </is>
       </c>
       <c r="E115">
-        <v>26118717.28</v>
+        <v>251463662</v>
       </c>
       <c r="F115">
-        <v>43531212.75</v>
+        <v>246484138</v>
       </c>
       <c r="G115">
-        <v>69649930.03</v>
+        <v>497947800</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Restrukturalizace a přeměna vinic</t>
+          <t>4.3.2-Lesnická infrastruktura</t>
         </is>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>42306366</v>
       </c>
       <c r="F116">
-        <v>139288384.36</v>
+        <v>41468591</v>
       </c>
       <c r="G116">
-        <v>139288384.36</v>
+        <v>83774957</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sankce za nezpracovaný průmyslový cukr</t>
-        </is>
+          <t>6.1.1-Zahájení činnosti mladých zemědělců</t>
+        </is>
+      </c>
+      <c r="D117">
+        <v>0.4</v>
       </c>
       <c r="E117">
-        <v>0</v>
+        <v>96608543.31000002</v>
       </c>
       <c r="F117">
-        <v>-237449.75</v>
+        <v>94695351.40000001</v>
       </c>
       <c r="G117">
-        <v>-237449.75</v>
+        <v>191303894.71</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Soukromé skladování</t>
-        </is>
+          <t>6.4.1-Investice do nezemědělských činností</t>
+        </is>
+      </c>
+      <c r="D118">
+        <v>0.4</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>134674826.03</v>
       </c>
       <c r="F118">
-        <v>5075234.32</v>
+        <v>132007822.74</v>
       </c>
       <c r="G118">
-        <v>5075234.32</v>
+        <v>266682648.77</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Soukromé skladování mléčných výrobků</t>
-        </is>
+          <t>6.4.2-Podpora agroturistiky</t>
+        </is>
+      </c>
+      <c r="D119">
+        <v>0.4</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>41856125</v>
       </c>
       <c r="F119">
-        <v>1591417.31</v>
+        <v>41027264</v>
       </c>
       <c r="G119">
-        <v>1591417.31</v>
+        <v>82883389</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Vinice - Investice (v rámci SOT s vínem)</t>
-        </is>
+          <t>8.3.1-Zavádění preventivních opatření v lesích</t>
+        </is>
+      </c>
+      <c r="D120">
+        <v>0.4</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>3240901</v>
       </c>
       <c r="F120">
-        <v>-86221.86</v>
+        <v>3176724</v>
       </c>
       <c r="G120">
-        <v>-86221.86</v>
+        <v>6417625</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Vnitrostátní programy podpory pro odvětví vína</t>
-        </is>
+          <t>8.4.1-Obnova lesních porostů po kalamitách</t>
+        </is>
+      </c>
+      <c r="D121">
+        <v>0.4</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>39798429</v>
       </c>
       <c r="F121">
-        <v>384665376.25</v>
+        <v>37064151</v>
       </c>
       <c r="G121">
-        <v>384665376.25</v>
+        <v>76862580</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Zvláštní podpora pro včelařství</t>
-        </is>
+          <t>8.4.2-Odstraňování škod způsobených povodněmi</t>
+        </is>
+      </c>
+      <c r="D122">
+        <v>0.4</v>
       </c>
       <c r="E122">
-        <v>88912707.05</v>
+        <v>1636234</v>
       </c>
       <c r="F122">
-        <v>88662042.81999999</v>
+        <v>1603831</v>
       </c>
       <c r="G122">
-        <v>177574749.87</v>
+        <v>3240065</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>EZZF</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>Společná organizace trhu</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Zvláštní podpora včelařství</t>
-        </is>
+          <t>8.5.1-Investice do ochrany melioračních a zpevňujících dřevi</t>
+        </is>
+      </c>
+      <c r="D123">
+        <v>0.4</v>
       </c>
       <c r="E123">
-        <v>33788730.75</v>
+        <v>12238504</v>
       </c>
       <c r="F123">
-        <v>33609303.19</v>
+        <v>11996069</v>
       </c>
       <c r="G123">
-        <v>67398033.94</v>
+        <v>24234573</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HRDP</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Agroenvironmentální opatření HRDP</t>
-        </is>
+          <t>8.5.2-Neproduktivní investice v lesích</t>
+        </is>
+      </c>
+      <c r="D124">
+        <v>0.4</v>
       </c>
       <c r="E124">
-        <v>-394324.21</v>
+        <v>15026880</v>
       </c>
       <c r="F124">
-        <v>-1299935.31</v>
+        <v>14729304</v>
       </c>
       <c r="G124">
-        <v>-1694259.52</v>
+        <v>29756184</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HRDP</t>
+          <t>EZFRV 14+</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ELESZ</t>
-        </is>
+          <t>8.5.3-Přeměna porostů náhradních dřevin</t>
+        </is>
+      </c>
+      <c r="D125">
+        <v>0.4</v>
       </c>
       <c r="E125">
-        <v>-31440</v>
+        <v>46605435</v>
       </c>
       <c r="F125">
-        <v>-125760</v>
+        <v>45682551</v>
       </c>
       <c r="G125">
-        <v>-157200</v>
+        <v>92287986</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>8.6.1-Technika a technologie pro lesní hospodářství</t>
+        </is>
+      </c>
+      <c r="D126">
+        <v>0.4</v>
+      </c>
+      <c r="E126">
+        <v>100823401.5</v>
+      </c>
+      <c r="F126">
+        <v>98826577.5</v>
+      </c>
+      <c r="G126">
+        <v>199649979</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>8.6.2-Technické vybavení dřevozpracujících provozoven</t>
+        </is>
+      </c>
+      <c r="D127">
+        <v>0.4</v>
+      </c>
+      <c r="E127">
+        <v>4909864</v>
+      </c>
+      <c r="F127">
+        <v>4812636</v>
+      </c>
+      <c r="G127">
+        <v>9722500</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>AEKO-Agroenvironmentálně-klimatické opatření (AEKO)</t>
+        </is>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>450529051.7800006</v>
+      </c>
+      <c r="F128">
+        <v>1352039483.480001</v>
+      </c>
+      <c r="G128">
+        <v>1802568535.260006</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>AEO-Agroenvironmentální opatření 2007-13 (AEO)</t>
+        </is>
+      </c>
+      <c r="E129">
+        <v>-18460.62</v>
+      </c>
+      <c r="F129">
+        <v>-55383.60000000001</v>
+      </c>
+      <c r="G129">
+        <v>-73844.22</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ANC-ANC Platba pro horské a jiné obl. s omez.</t>
+        </is>
+      </c>
+      <c r="E130">
+        <v>1088221547.380013</v>
+      </c>
+      <c r="F130">
+        <v>3265971095.250011</v>
+      </c>
+      <c r="G130">
+        <v>4354192642.629988</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>EKOZ-Ekologické zemědělství (EZ)</t>
+        </is>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131">
+        <v>224161732.1399995</v>
+      </c>
+      <c r="F131">
+        <v>672571416.9399998</v>
+      </c>
+      <c r="G131">
+        <v>896733149.079998</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ELESP-Péče a náhrada</t>
+        </is>
+      </c>
+      <c r="D132">
+        <v>0.4</v>
+      </c>
+      <c r="E132">
+        <v>5237705.369999996</v>
+      </c>
+      <c r="F132">
+        <v>15713082.3</v>
+      </c>
+      <c r="G132">
+        <v>20950787.66999998</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>GEN-Genofond - ochrana a reprodukce</t>
+        </is>
+      </c>
+      <c r="E133">
+        <v>2028383.64</v>
+      </c>
+      <c r="F133">
+        <v>6085141.06</v>
+      </c>
+      <c r="G133">
+        <v>8113524.700000001</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>IV.1.2.3-Realizace místní rozvojové strategie (EAFRD 07-14)</t>
+        </is>
+      </c>
+      <c r="E134">
+        <v>239760</v>
+      </c>
+      <c r="F134">
+        <v>426240</v>
+      </c>
+      <c r="G134">
+        <v>666000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>LEOD-Lesnicko-environmentální opatření (LEO)</t>
+        </is>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135">
+        <v>2227494.96</v>
+      </c>
+      <c r="F135">
+        <v>6682399.299999999</v>
+      </c>
+      <c r="G135">
+        <v>8909894.26</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>LESND-Natura 2000 v lesích</t>
+        </is>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136">
+        <v>942890.1800000002</v>
+      </c>
+      <c r="F136">
+        <v>2828656.590000001</v>
+      </c>
+      <c r="G136">
+        <v>3771546.77</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>LFA-Méně příznivé oblasti (LFA)</t>
+        </is>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137">
+        <v>-92351.31999999998</v>
+      </c>
+      <c r="F137">
+        <v>-277055.2800000001</v>
+      </c>
+      <c r="G137">
+        <v>-369406.6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>NAEKO-Navazující agroenvi.-klimatická opatření</t>
+        </is>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>328178300.7499986</v>
+      </c>
+      <c r="F138">
+        <v>984901245.4100012</v>
+      </c>
+      <c r="G138">
+        <v>1313079546.160001</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>NAT-Natura 2000 na zemědělské půdě</t>
+        </is>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>6882198.580000008</v>
+      </c>
+      <c r="F139">
+        <v>20649652.27000001</v>
+      </c>
+      <c r="G139">
+        <v>27531850.85000002</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>NEKOZ-Navazující ekologické zemědělství</t>
+        </is>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>121433676.67</v>
+      </c>
+      <c r="F140">
+        <v>364407126.5699998</v>
+      </c>
+      <c r="G140">
+        <v>485840803.2400001</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>POR-Zachování porostního typu</t>
+        </is>
+      </c>
+      <c r="E141">
+        <v>9769950.199999997</v>
+      </c>
+      <c r="F141">
+        <v>29309808.84</v>
+      </c>
+      <c r="G141">
+        <v>39079759.03999999</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>PPO-PPO(exLFA) Platba-přechodně podp. oblas.</t>
+        </is>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>933587.3499999999</v>
+      </c>
+      <c r="F142">
+        <v>2801412.659999999</v>
+      </c>
+      <c r="G142">
+        <v>3735000.009999998</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>PUZCP-Předčasné ukončení zemědělské činnosti (PUZČ)</t>
+        </is>
+      </c>
+      <c r="E143">
+        <v>21866190.07000001</v>
+      </c>
+      <c r="F143">
+        <v>21433144.84</v>
+      </c>
+      <c r="G143">
+        <v>43299334.91000001</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>WLF-Dobré životní podmínky zvířat (Welfare/DŽPZ)</t>
+        </is>
+      </c>
+      <c r="E144">
+        <v>85444236.52</v>
+      </c>
+      <c r="F144">
+        <v>82137375.49000007</v>
+      </c>
+      <c r="G144">
+        <v>167581612.0100001</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>ZZPLP-Zalesnění zemědělské půdy (ZZP)</t>
+        </is>
+      </c>
+      <c r="D145">
+        <v>0.4</v>
+      </c>
+      <c r="E145">
+        <v>272091.46</v>
+      </c>
+      <c r="F145">
+        <v>816273.4799999999</v>
+      </c>
+      <c r="G145">
+        <v>1088364.94</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>EZFRV 14+</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>ZZPPN-Podpora zalesňování/zakládání lesů včetně nákladů na z</t>
+        </is>
+      </c>
+      <c r="D146">
+        <v>0.4</v>
+      </c>
+      <c r="E146">
+        <v>724342.8300000003</v>
+      </c>
+      <c r="F146">
+        <v>2173020.039999999</v>
+      </c>
+      <c r="G146">
+        <v>2897362.870000002</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Bahnice a kozy (VCS)</t>
+        </is>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>352611976.5299967</v>
+      </c>
+      <c r="G147">
+        <v>352611976.5299967</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Bílkovinné plodiny (VCS)</t>
+        </is>
+      </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>2187727094.289994</v>
+      </c>
+      <c r="G148">
+        <v>2187727094.289994</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Brambory konzumní (VCS)</t>
+        </is>
+      </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>238539114.5500001</v>
+      </c>
+      <c r="G149">
+        <v>238539114.5500001</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Brambory pro výrobu škrobu (VCS)</t>
+        </is>
+      </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>401751642.9100011</v>
+      </c>
+      <c r="G150">
+        <v>401751642.9100011</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Chmel (VCS)</t>
+        </is>
+      </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>408489468.3500001</v>
+      </c>
+      <c r="G151">
+        <v>408489468.3500001</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Cukrová řepa (VCS)</t>
+        </is>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>2161263929.730004</v>
+      </c>
+      <c r="G152">
+        <v>2161263929.730004</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Dojnice (VCS)</t>
+        </is>
+      </c>
+      <c r="E153">
+        <v>2789.55</v>
+      </c>
+      <c r="F153">
+        <v>6637676285.490014</v>
+      </c>
+      <c r="G153">
+        <v>6637679075.040014</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Finanční kompenzace</t>
+        </is>
+      </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>1469272083.549986</v>
+      </c>
+      <c r="G154">
+        <v>1469272083.549986</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Greening</t>
+        </is>
+      </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>33192053755.02793</v>
+      </c>
+      <c r="G155">
+        <v>33192053755.02793</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Mladý zemědělec</t>
+        </is>
+      </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>635903910.4599957</v>
+      </c>
+      <c r="G156">
+        <v>635903910.4599957</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Oddělená platba za cukr</t>
+        </is>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>554661.5</v>
+      </c>
+      <c r="G157">
+        <v>554661.5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Ovoce s velmi vysokou pracností (VCS)</t>
+        </is>
+      </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>334245281.98</v>
+      </c>
+      <c r="G158">
+        <v>334245281.98</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Ovoce s vysokou pracností (VCS)</t>
+        </is>
+      </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>130310651.2699998</v>
+      </c>
+      <c r="G159">
+        <v>130310651.2699998</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Platba na plochu (SAPS)</t>
+        </is>
+      </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>59593723251.49964</v>
+      </c>
+      <c r="G160">
+        <v>59593723251.49964</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Tele masného typu (VCS)</t>
+        </is>
+      </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>3205479430.350211</v>
+      </c>
+      <c r="G161">
+        <v>3205479430.350211</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Zelenina s velmi vysokou pracností (VCS)</t>
+        </is>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>411376311.749999</v>
+      </c>
+      <c r="G162">
+        <v>411376311.749999</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Přímá podpora</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Zelenina s vysokou pracností (VCS)</t>
+        </is>
+      </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>65724386.02000004</v>
+      </c>
+      <c r="G163">
+        <v>65724386.02000004</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Intervenční prodej</t>
+        </is>
+      </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>-5333.17</v>
+      </c>
+      <c r="G164">
+        <v>-5333.17</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Mimořádná podpora na vepřové maso</t>
+        </is>
+      </c>
+      <c r="E165">
+        <v>111826855.88</v>
+      </c>
+      <c r="F165">
+        <v>111826855.88</v>
+      </c>
+      <c r="G165">
+        <v>223653711.7599999</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Mimořádná podpora pro zemědělce v odvětví živočišné výroby -</t>
+        </is>
+      </c>
+      <c r="E166">
+        <v>-2410670.89</v>
+      </c>
+      <c r="F166">
+        <v>-1607114.49</v>
+      </c>
+      <c r="G166">
+        <v>-4017785.38</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Mléko pro školy</t>
+        </is>
+      </c>
+      <c r="E167">
+        <v>824760434.5400002</v>
+      </c>
+      <c r="F167">
+        <v>215995255.48</v>
+      </c>
+      <c r="G167">
+        <v>1040755690.02</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Opatření v oblasti propagace - Platby ze strany členských st</t>
+        </is>
+      </c>
+      <c r="E168">
+        <v>22906887.07</v>
+      </c>
+      <c r="F168">
+        <v>47889262.66</v>
+      </c>
+      <c r="G168">
+        <v>70796149.72999999</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Operační fondy pro organizace producentů</t>
+        </is>
+      </c>
+      <c r="E169">
+        <v>-1166.61</v>
+      </c>
+      <c r="F169">
+        <v>388161621.98</v>
+      </c>
+      <c r="G169">
+        <v>388160455.3699999</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Organizace a seskupení pěstitelů ovoce a zeleniny</t>
+        </is>
+      </c>
+      <c r="E170">
+        <v>589664.71</v>
+      </c>
+      <c r="F170">
+        <v>1768994.15</v>
+      </c>
+      <c r="G170">
+        <v>2358658.86</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Organizace producentů</t>
+        </is>
+      </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>76209042.86999999</v>
+      </c>
+      <c r="G171">
+        <v>76209042.86999999</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Ostatní opatření (mléko a mléčné výrobky)</t>
+        </is>
+      </c>
+      <c r="E172">
+        <v>167738548.6599998</v>
+      </c>
+      <c r="F172">
+        <v>200004136.0999997</v>
+      </c>
+      <c r="G172">
+        <v>367742684.7599996</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Ostatní opatření (ovoce a zelenina)</t>
+        </is>
+      </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>209917.78</v>
+      </c>
+      <c r="G173">
+        <v>209917.78</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Ovoce a zelenina do škol</t>
+        </is>
+      </c>
+      <c r="E174">
+        <v>72440753.46999998</v>
+      </c>
+      <c r="F174">
+        <v>123533477.61</v>
+      </c>
+      <c r="G174">
+        <v>195974231.08</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Ovoce a zelenina do škol - hodnocení</t>
+        </is>
+      </c>
+      <c r="E175">
+        <v>-1728.49</v>
+      </c>
+      <c r="F175">
+        <v>-4111.01</v>
+      </c>
+      <c r="G175">
+        <v>-5839.5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Podpora spotřeby školního mléka</t>
+        </is>
+      </c>
+      <c r="E176">
+        <v>46123607.3</v>
+      </c>
+      <c r="F176">
+        <v>11599673.21</v>
+      </c>
+      <c r="G176">
+        <v>57723280.50999999</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Projekt Ovoce do škol</t>
+        </is>
+      </c>
+      <c r="E177">
+        <v>799128296.8699999</v>
+      </c>
+      <c r="F177">
+        <v>447350390.2399998</v>
+      </c>
+      <c r="G177">
+        <v>1246478687.11</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Propagace zemědělských produktů</t>
+        </is>
+      </c>
+      <c r="E178">
+        <v>26118717.28</v>
+      </c>
+      <c r="F178">
+        <v>37487689.75</v>
+      </c>
+      <c r="G178">
+        <v>63606407.03</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Restrukturalizace a přeměna vinic</t>
+        </is>
+      </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>139288384.36</v>
+      </c>
+      <c r="G179">
+        <v>139288384.36</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Sankce za nezpracovaný průmyslový cukr</t>
+        </is>
+      </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>-237449.75</v>
+      </c>
+      <c r="G180">
+        <v>-237449.75</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Soukromé skladování</t>
+        </is>
+      </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>5075234.32</v>
+      </c>
+      <c r="G181">
+        <v>5075234.32</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Soukromé skladování mléčných výrobků</t>
+        </is>
+      </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>1846612.65</v>
+      </c>
+      <c r="G182">
+        <v>1846612.65</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Vinice - Investice (v rámci SOT s vínem)</t>
+        </is>
+      </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>-86221.86</v>
+      </c>
+      <c r="G183">
+        <v>-86221.86</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Vnitrostátní programy podpory pro odvětví vína</t>
+        </is>
+      </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>509326648.81</v>
+      </c>
+      <c r="G184">
+        <v>509326648.81</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Zvláštní podpora pro včelařství</t>
+        </is>
+      </c>
+      <c r="E185">
+        <v>117585013.72</v>
+      </c>
+      <c r="F185">
+        <v>117334349.47</v>
+      </c>
+      <c r="G185">
+        <v>234919363.19</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>EZZF</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Společná organizace trhu</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Zvláštní podpora včelařství</t>
+        </is>
+      </c>
+      <c r="E186">
+        <v>33785730.75</v>
+      </c>
+      <c r="F186">
+        <v>33607303.19</v>
+      </c>
+      <c r="G186">
+        <v>67393033.94</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
           <t>HRDP</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Agroenvironmentální opatření HRDP</t>
+        </is>
+      </c>
+      <c r="E187">
+        <v>-561180.3399999999</v>
+      </c>
+      <c r="F187">
+        <v>-1413172.74</v>
+      </c>
+      <c r="G187">
+        <v>-1974353.08</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>HRDP</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>ELESZ</t>
+        </is>
+      </c>
+      <c r="E188">
+        <v>-31440</v>
+      </c>
+      <c r="F188">
+        <v>-125760</v>
+      </c>
+      <c r="G188">
+        <v>-157200</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>HRDP</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
         <is>
           <t>Méně příznivé oblasti</t>
         </is>
       </c>
-      <c r="E126">
-        <v>-3297587.56</v>
-      </c>
-      <c r="F126">
-        <v>-2555830.39</v>
-      </c>
-      <c r="G126">
-        <v>-5853417.95</v>
+      <c r="E189">
+        <v>-3414401.62</v>
+      </c>
+      <c r="F189">
+        <v>-2633706.43</v>
+      </c>
+      <c r="G189">
+        <v>-6048108.05</v>
       </c>
     </row>
   </sheetData>
